--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1034631.550694924</v>
+        <v>1031902.80740914</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.89211807707745</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>105.122837712499</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.0195974574575</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>161.2620823710465</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>189.4266297043736</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>61.32905684098905</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>17.14924821715323</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>129.2224443473097</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3012171023013</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.9250455462843</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>124.1004521009517</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>36.12932374479242</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754662</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868901</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>66.74877385786742</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634809</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696253</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795586</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.031271843459</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699862</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.05806357631681</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012147</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.8286381302724</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716393</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>76.17049831699789</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>42.54416032354808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.158393318536</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1241.158393318536</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>352.6741383092202</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.400259589023</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>350.9495687306105</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>350.9495687306105</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>350.9495687306105</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.1640758398987</v>
+        <v>1099.149698721037</v>
       </c>
       <c r="C8" t="n">
-        <v>432.2015588994869</v>
+        <v>730.1871817806255</v>
       </c>
       <c r="D8" t="n">
-        <v>73.93586029273641</v>
+        <v>371.9214831738749</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>371.9214831738749</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>364.9759824246715</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.200548754597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.200548754597</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.200548754597</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.137661411026</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.369006140912</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="X8" t="n">
-        <v>1577.903247879832</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.76391590402</v>
+        <v>1485.749538785159</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1734.774662373908</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>358.3142643329351</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>358.3142643329351</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>829.1149055854951</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="X10" t="n">
-        <v>923.3499417167701</v>
+        <v>539.9627291631748</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>539.9627291631748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2218.777615179242</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1849.815098238831</v>
+        <v>1166.296315748942</v>
       </c>
       <c r="D11" t="n">
-        <v>1491.549399632081</v>
+        <v>1166.296315748943</v>
       </c>
       <c r="E11" t="n">
-        <v>1105.761147033837</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>694.775242244229</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234591</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.75120075037</v>
+        <v>3622.786021971443</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.75120075037</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3721.75120075037</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>3368.982545480256</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2995.516787219176</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2605.377455243364</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469182</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469182</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843894</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282788</v>
+        <v>1413.76371390885</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1518.698809735873</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458552</v>
+        <v>395.360342734992</v>
       </c>
       <c r="C13" t="n">
-        <v>78.51106622469182</v>
+        <v>226.424159807085</v>
       </c>
       <c r="D13" t="n">
-        <v>78.51106622469182</v>
+        <v>226.424159807085</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469187</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5218,16 +5218,16 @@
         <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920201</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
         <v>1378.39731136049</v>
@@ -5236,13 +5236,13 @@
         <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176424</v>
+        <v>834.2956531176428</v>
       </c>
       <c r="X13" t="n">
-        <v>606.306102219625</v>
+        <v>797.8013867087618</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760949</v>
+        <v>577.0088075652317</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128776</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>423.3203657894393</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="M15" t="n">
-        <v>1015.338720041567</v>
+        <v>1016.37775261609</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.434683440903</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2184.311158441098</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635724</v>
+        <v>494.0589900220742</v>
       </c>
       <c r="C16" t="n">
-        <v>392.9821521356655</v>
+        <v>389.8182101363266</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8655127233296</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E16" t="n">
-        <v>175.4425088264937</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.34892993536</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373423</v>
+        <v>896.500033995844</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938121</v>
+        <v>675.7074548523138</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327641</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713839</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630038</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257307</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133949</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.4481746984123</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>680.4481746984123</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860766</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036835</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057731</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057731</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0966395286521</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133949</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,13 +6385,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694718</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6528,10 +6528,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
         <v>93.81666304797187</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468485</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962608</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589162</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868373</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>945.4026036630038</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C31" t="n">
-        <v>776.4664207350969</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D31" t="n">
-        <v>626.3497813227611</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>478.4366877403679</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>331.5467402424576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038351</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797758</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311992</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032923</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133955</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310024</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
         <v>261.012762333092</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7126,19 +7126,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614389</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614389</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.724593490894</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>402.724593490894</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.724593490894</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>159.7974209002381</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>366.568374812572</v>
       </c>
       <c r="O9" t="n">
-        <v>88.2018582600214</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9164,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>-1.140960109869319e-11</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.62915296996044</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>112.5046456673651</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.14636899767615</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>189.5803316442447</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729141</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173776</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>79.68518878870175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516653</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016436</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253622</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.55338150863584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844822612</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>70.46607471595203</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.815700412496</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>72.44497470121446</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>106.0713126946643</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>889346.8385117444</v>
+        <v>889346.8385117447</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>968095.2776857362</v>
+        <v>968095.277685736</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.471348106</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.471348106</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973455.4713481062</v>
+        <v>973455.4713481063</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973455.4713481062</v>
+        <v>973455.471348106</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26326,34 +26326,34 @@
         <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="M2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295033</v>
-      </c>
       <c r="N2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>588754.3687919669</v>
+        <v>588754.3687919675</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>166521.3471051375</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557887</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.820833404053701e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.21757348436707e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>76530.81132369996</v>
+        <v>76530.81132370015</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848926</v>
+        <v>43782.40655848895</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5578.415609376701</v>
@@ -26430,34 +26430,34 @@
         <v>5671.003945457393</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682753</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682555</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682747</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682747</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682749</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621471</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-431176.3993156314</v>
+        <v>-431176.3993156312</v>
       </c>
       <c r="C6" t="n">
-        <v>158791.4798989132</v>
+        <v>158791.4798989131</v>
       </c>
       <c r="D6" t="n">
         <v>2987.673805118306</v>
       </c>
       <c r="E6" t="n">
-        <v>-275045.6667839866</v>
+        <v>-275255.6310278319</v>
       </c>
       <c r="F6" t="n">
-        <v>169139.3948364829</v>
+        <v>169093.489840918</v>
       </c>
       <c r="G6" t="n">
-        <v>325963.3272033348</v>
+        <v>325928.5892778988</v>
       </c>
       <c r="H6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134779</v>
       </c>
       <c r="I6" t="n">
-        <v>337130.5634389135</v>
+        <v>337095.8255134776</v>
       </c>
       <c r="J6" t="n">
-        <v>160707.3442463206</v>
+        <v>160672.606320885</v>
       </c>
       <c r="K6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134762</v>
       </c>
       <c r="L6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134796</v>
       </c>
       <c r="M6" t="n">
-        <v>260599.7521152135</v>
+        <v>260565.0141897778</v>
       </c>
       <c r="N6" t="n">
-        <v>293348.1568804243</v>
+        <v>293313.4189549889</v>
       </c>
       <c r="O6" t="n">
-        <v>334107.265461689</v>
+        <v>334072.5275362531</v>
       </c>
       <c r="P6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134777</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26762,7 +26762,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>981.3883278086485</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>618.6941671564908</v>
+        <v>618.6941671564913</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218295</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26984,10 +26984,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.304008909537468e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.1010550540921</v>
+        <v>307.1010550540929</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173593</v>
+        <v>178.756962517358</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540921</v>
+        <v>307.1010550540929</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173593</v>
+        <v>178.756962517358</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540921</v>
+        <v>307.1010550540929</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173593</v>
+        <v>178.756962517358</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>360.3458205789761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>147.0148056113291</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.7142442060231</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.38987441310772</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>63.77302308703773</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>223.4902742415632</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>93.32383028715113</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>206.2236565036055</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.48721104172748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310839</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845331</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>237.3367583732557</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431811</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32087,19 +32087,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>671.3535095519898</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>506.1607420902315</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421325</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418564</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,19 +33740,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>271.6502746876386</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35261,13 +35261,13 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>567.231750219304</v>
       </c>
       <c r="O9" t="n">
-        <v>249.3254064102847</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512097</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625148</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>105.9950462899224</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987366</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>540.0117974686565</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>372.1863346759013</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924618</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679587992</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789242</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629537</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191321</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010458</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060461</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
